--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R12 吹膜工序物料平衡记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R12 吹膜工序物料平衡记录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QMS File-20160301\SOP-MFG-3 生产岗位记录\301. 吹膜岗位记录表20160301\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2017年工作\2017-生产指令台账\ERP\301. 吹膜岗位记录表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -766,22 +766,13 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -790,10 +781,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1143,15 +1143,15 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -1382,13 +1382,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
     </row>
     <row r="3" spans="1:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
@@ -1573,13 +1573,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
     </row>
     <row r="3" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="19" t="s">
@@ -1589,10 +1589,10 @@
       <c r="C3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="59"/>
+      <c r="E3" s="63"/>
     </row>
     <row r="4" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1613,19 +1613,19 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="54" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1639,35 +1639,35 @@
       <c r="E7" s="44"/>
     </row>
     <row r="8" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="61"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="57"/>
+      <c r="E8" s="61"/>
     </row>
     <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
     </row>
     <row r="13" spans="1:5" ht="53.45" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R12 吹膜工序物料平衡记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R12 吹膜工序物料平衡记录.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2017年工作\2017-生产指令台账\ERP\301. 吹膜岗位记录表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuyang/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="2"/>
+    <workbookView xWindow="920" yWindow="460" windowWidth="27880" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="1" r:id="rId1"/>
@@ -17,53 +17,16 @@
     <sheet name="20170619" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="F4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-密度使用：</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 0.95</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -229,18 +192,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Century Schoolbook"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Century Schoolbook"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -249,7 +212,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Century Schoolbook"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -257,7 +220,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Century Schoolbook"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -266,7 +229,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Century Schoolbook"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -279,27 +242,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -308,7 +250,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Century Schoolbook"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -347,7 +289,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -355,104 +297,104 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -461,115 +403,115 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,23 +519,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,7 +597,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -679,7 +621,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -739,13 +681,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -763,7 +705,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -798,7 +740,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1107,26 +1049,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="14.5" style="6" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="14.75" style="7" customWidth="1"/>
-    <col min="8" max="8" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" customWidth="1"/>
     <col min="9" max="10" width="7.5" customWidth="1"/>
-    <col min="11" max="12" width="8.375" customWidth="1"/>
-    <col min="13" max="13" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.33203125" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1340,7 +1282,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="53.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:8" ht="53.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:G2"/>
@@ -1349,7 +1291,6 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.82677165354330717" right="0.70866141732283472" top="0.6692913385826772" bottom="0.47244094488188981" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1357,17 +1298,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="5" width="21.75" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="8.375" customWidth="1"/>
-    <col min="7" max="7" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="5" width="21.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="8.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1530,7 +1471,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="53.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:5" ht="53.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:E2"/>
@@ -1546,18 +1487,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="21.75" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
-    <col min="5" max="5" width="23.625" customWidth="1"/>
-    <col min="6" max="6" width="8.375" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1595,7 +1536,7 @@
       <c r="E3" s="63"/>
     </row>
     <row r="4" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:5" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="52" t="s">
         <v>12</v>
       </c>
@@ -1659,7 +1600,7 @@
       <c r="D10" s="59"/>
       <c r="E10" s="59"/>
     </row>
-    <row r="13" spans="1:5" ht="53.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:5" ht="53.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A2:E2"/>
@@ -1682,7 +1623,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R12 吹膜工序物料平衡记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R12 吹膜工序物料平衡记录.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuyang/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuyang/Documents/workspace/mitcpro/mySystem/mySystem/xls/Extrusion/B/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{425569AB-4D3D-A64E-A9C9-D2478BC623F3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="460" windowWidth="27880" windowHeight="17540"/>
+    <workbookView xWindow="920" yWindow="460" windowWidth="27880" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="20170619" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t>艾微美奥星包装科技（北京）有限责任公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,34 +166,41 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>(T+U)/(a+b+C)*100=
+保留2位小数 如：99.96%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录人/日期：               年   月   日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                     年   月   日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吹膜生产和检验记录中的 
+T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>领料量
 （kg)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(T+U)/(a+b+C)*100=
-保留2位小数 如：99.96%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录人/日期：               年   月   日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                     年   月   日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吹膜生产和检验记录中的 
-T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供料量
+（kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">领料记录合计
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,8 +263,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Century Schoolbook"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,6 +291,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCF4C7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -545,7 +567,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -714,6 +736,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -737,6 +765,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1049,14 +1080,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="12.33203125" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
@@ -1071,7 +1102,7 @@
     <col min="13" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1084,19 +1115,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="56" t="s">
+    <row r="2" spans="1:9" ht="42.75" customHeight="1">
+      <c r="A2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="31.5" customHeight="1" thickBot="1">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -1107,7 +1138,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" s="15" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" s="15" customFormat="1" ht="45.75" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
@@ -1130,7 +1161,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="22.5" customHeight="1">
       <c r="A5" s="16">
         <v>1</v>
       </c>
@@ -1141,7 +1172,7 @@
       <c r="F5" s="21"/>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="22.5" customHeight="1">
       <c r="A6" s="16">
         <v>2</v>
       </c>
@@ -1152,7 +1183,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="22.5" customHeight="1">
       <c r="A7" s="16">
         <v>3</v>
       </c>
@@ -1163,7 +1194,7 @@
       <c r="F7" s="16"/>
       <c r="G7" s="22"/>
     </row>
-    <row r="8" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="22.5" customHeight="1">
       <c r="A8" s="16">
         <v>4</v>
       </c>
@@ -1174,7 +1205,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="22"/>
     </row>
-    <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="22.5" customHeight="1">
       <c r="A9" s="16">
         <v>6</v>
       </c>
@@ -1185,7 +1216,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="22"/>
     </row>
-    <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="22.5" customHeight="1">
       <c r="A10" s="16">
         <v>7</v>
       </c>
@@ -1196,7 +1227,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="22"/>
     </row>
-    <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="22.5" customHeight="1">
       <c r="A11" s="16">
         <v>5</v>
       </c>
@@ -1207,7 +1238,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="22"/>
     </row>
-    <row r="12" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="22.5" customHeight="1" thickBot="1">
       <c r="A12" s="24">
         <v>8</v>
       </c>
@@ -1218,11 +1249,11 @@
       <c r="F12" s="24"/>
       <c r="G12" s="29"/>
     </row>
-    <row r="13" spans="1:9" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="9" customHeight="1" thickBot="1">
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="45" customHeight="1">
       <c r="A14" s="30" t="s">
         <v>12</v>
       </c>
@@ -1248,7 +1279,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="36.75" customHeight="1" thickBot="1">
       <c r="A15" s="24"/>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
@@ -1258,11 +1289,11 @@
       <c r="G15" s="35"/>
       <c r="H15" s="29"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
       <c r="G16" s="6"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="33.75" customHeight="1">
       <c r="A17" s="38" t="s">
         <v>20</v>
       </c>
@@ -1274,7 +1305,7 @@
       <c r="G17" s="40"/>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="30" customHeight="1">
       <c r="B18" t="s">
         <v>21</v>
       </c>
@@ -1282,7 +1313,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="53.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:8" ht="53.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:G2"/>
@@ -1295,14 +1326,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="12.33203125" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" customWidth="1"/>
@@ -1311,7 +1342,7 @@
     <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1322,16 +1353,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="56" t="s">
+    <row r="2" spans="1:5" ht="42.75" customHeight="1">
+      <c r="A2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-    </row>
-    <row r="3" spans="1:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+    </row>
+    <row r="3" spans="1:5" ht="31.5" customHeight="1" thickBot="1">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -1340,7 +1371,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="15" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" s="15" customFormat="1" ht="45.75" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
@@ -1357,7 +1388,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="22.5" customHeight="1">
       <c r="A5" s="16">
         <v>1</v>
       </c>
@@ -1366,7 +1397,7 @@
       <c r="D5" s="18"/>
       <c r="E5" s="22"/>
     </row>
-    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="22.5" customHeight="1">
       <c r="A6" s="16">
         <v>2</v>
       </c>
@@ -1375,7 +1406,7 @@
       <c r="D6" s="18"/>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="22.5" customHeight="1">
       <c r="A7" s="16">
         <v>3</v>
       </c>
@@ -1384,7 +1415,7 @@
       <c r="D7" s="18"/>
       <c r="E7" s="22"/>
     </row>
-    <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="22.5" customHeight="1">
       <c r="A8" s="16">
         <v>4</v>
       </c>
@@ -1393,7 +1424,7 @@
       <c r="D8" s="18"/>
       <c r="E8" s="22"/>
     </row>
-    <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="22.5" customHeight="1">
       <c r="A9" s="16">
         <v>6</v>
       </c>
@@ -1402,7 +1433,7 @@
       <c r="D9" s="19"/>
       <c r="E9" s="20"/>
     </row>
-    <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="22.5" customHeight="1">
       <c r="A10" s="16">
         <v>7</v>
       </c>
@@ -1411,7 +1442,7 @@
       <c r="D10" s="18"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="22.5" customHeight="1">
       <c r="A11" s="16">
         <v>5</v>
       </c>
@@ -1420,7 +1451,7 @@
       <c r="D11" s="18"/>
       <c r="E11" s="22"/>
     </row>
-    <row r="12" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="22.5" customHeight="1" thickBot="1">
       <c r="A12" s="24">
         <v>8</v>
       </c>
@@ -1429,8 +1460,8 @@
       <c r="D12" s="26"/>
       <c r="E12" s="28"/>
     </row>
-    <row r="13" spans="1:5" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="9" customHeight="1" thickBot="1"/>
+    <row r="14" spans="1:5" ht="45" customHeight="1">
       <c r="A14" s="30" t="s">
         <v>12</v>
       </c>
@@ -1447,14 +1478,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="36.75" customHeight="1" thickBot="1">
       <c r="A15" s="24"/>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
       <c r="D15" s="35"/>
       <c r="E15" s="29"/>
     </row>
-    <row r="17" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="33.75" customHeight="1">
       <c r="A17" s="38" t="s">
         <v>20</v>
       </c>
@@ -1463,7 +1494,7 @@
       <c r="D17" s="39"/>
       <c r="E17" s="44"/>
     </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="30" customHeight="1">
       <c r="B18" t="s">
         <v>21</v>
       </c>
@@ -1471,7 +1502,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="53.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:5" ht="53.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:E2"/>
@@ -1484,45 +1515,47 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="22.83203125" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8" customWidth="1"/>
+    <col min="3" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="47" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="47" customFormat="1" ht="18.75" customHeight="1">
       <c r="A1" s="49" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="45"/>
       <c r="D1" s="45"/>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="45"/>
+      <c r="F1" s="46" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="56" t="s">
+    <row r="2" spans="1:6" ht="42.75" customHeight="1">
+      <c r="A2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-    </row>
-    <row r="3" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+    </row>
+    <row r="3" spans="1:6" ht="31.5" customHeight="1">
       <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
@@ -1530,13 +1563,14 @@
       <c r="C3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="57"/>
+      <c r="E3" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="63"/>
-    </row>
-    <row r="4" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F3" s="65"/>
+    </row>
+    <row r="4" spans="1:6" ht="9" customHeight="1"/>
+    <row r="5" spans="1:6" ht="31" customHeight="1">
       <c r="A5" s="52" t="s">
         <v>12</v>
       </c>
@@ -1544,71 +1578,79 @@
         <v>13</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="F5" s="53" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="74.25" customHeight="1">
       <c r="A6" s="54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="54" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="E6" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="54" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F6" s="54" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="39.75" customHeight="1">
       <c r="A7" s="48" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="38"/>
       <c r="C7" s="39"/>
       <c r="D7" s="39"/>
-      <c r="E7" s="44"/>
-    </row>
-    <row r="8" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="58"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="44"/>
+    </row>
+    <row r="8" spans="1:6" ht="36" customHeight="1">
+      <c r="A8" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="60"/>
       <c r="C8" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="61"/>
-    </row>
-    <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-    </row>
-    <row r="13" spans="1:5" ht="53.5" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="63"/>
+    </row>
+    <row r="9" spans="1:6" ht="21" customHeight="1">
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+    </row>
+    <row r="13" spans="1:6" ht="53.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A2:F2"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1618,12 +1660,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R12 吹膜工序物料平衡记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R12 吹膜工序物料平衡记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuyang/Documents/workspace/mitcpro/mySystem/mySystem/xls/Extrusion/B/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{425569AB-4D3D-A64E-A9C9-D2478BC623F3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{01A5B01A-D269-C84C-87B0-4AA91BE35AFB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="460" windowWidth="27880" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -742,6 +742,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -765,9 +768,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1116,15 +1116,15 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="42.75" customHeight="1">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:9" ht="31.5" customHeight="1" thickBot="1">
@@ -1354,13 +1354,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="42.75" customHeight="1">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
     </row>
     <row r="3" spans="1:5" ht="31.5" customHeight="1" thickBot="1">
       <c r="B3" t="s">
@@ -1524,9 +1524,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" customWidth="1"/>
-    <col min="3" max="4" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
     <col min="5" max="5" width="14.83203125" customWidth="1"/>
     <col min="6" max="6" width="23.6640625" customWidth="1"/>
     <col min="7" max="7" width="8.33203125" customWidth="1"/>
@@ -1546,14 +1547,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="42.75" customHeight="1">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
     </row>
     <row r="3" spans="1:6" ht="31.5" customHeight="1">
       <c r="A3" s="19" t="s">
@@ -1564,10 +1565,10 @@
         <v>4</v>
       </c>
       <c r="D3" s="57"/>
-      <c r="E3" s="64" t="s">
+      <c r="E3" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="65"/>
+      <c r="F3" s="66"/>
     </row>
     <row r="4" spans="1:6" ht="9" customHeight="1"/>
     <row r="5" spans="1:6" ht="31" customHeight="1">
@@ -1580,7 +1581,7 @@
       <c r="C5" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="58" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="53" t="s">
@@ -1621,26 +1622,26 @@
       <c r="F7" s="44"/>
     </row>
     <row r="8" spans="1:6" ht="36" customHeight="1">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="60"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="19" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="56"/>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="63"/>
+      <c r="F8" s="64"/>
     </row>
     <row r="9" spans="1:6" ht="21" customHeight="1">
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
     </row>
     <row r="13" spans="1:6" ht="53.5" customHeight="1"/>
   </sheetData>

--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R12 吹膜工序物料平衡记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R12 吹膜工序物料平衡记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuyang/Documents/workspace/mitcpro/mySystem/mySystem/xls/Extrusion/B/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{01A5B01A-D269-C84C-87B0-4AA91BE35AFB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C16C5FD0-BA55-6E41-B41F-36DCC8752F4C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="460" windowWidth="27880" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -739,9 +739,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -767,6 +764,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1116,15 +1116,15 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="42.75" customHeight="1">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:9" ht="31.5" customHeight="1" thickBot="1">
@@ -1354,13 +1354,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="42.75" customHeight="1">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
     </row>
     <row r="3" spans="1:5" ht="31.5" customHeight="1" thickBot="1">
       <c r="B3" t="s">
@@ -1519,7 +1519,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D3" sqref="D3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1547,14 +1547,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="42.75" customHeight="1">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
     </row>
     <row r="3" spans="1:6" ht="31.5" customHeight="1">
       <c r="A3" s="19" t="s">
@@ -1564,11 +1564,11 @@
       <c r="C3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="65" t="s">
+      <c r="D3" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="65"/>
     </row>
     <row r="4" spans="1:6" ht="9" customHeight="1"/>
     <row r="5" spans="1:6" ht="31" customHeight="1">
@@ -1581,7 +1581,7 @@
       <c r="C5" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="57" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="53" t="s">
@@ -1622,26 +1622,26 @@
       <c r="F7" s="44"/>
     </row>
     <row r="8" spans="1:6" ht="36" customHeight="1">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="61"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="19" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="56"/>
-      <c r="E8" s="63" t="s">
+      <c r="E8" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="64"/>
+      <c r="F8" s="63"/>
     </row>
     <row r="9" spans="1:6" ht="21" customHeight="1">
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
     </row>
     <row r="13" spans="1:6" ht="53.5" customHeight="1"/>
   </sheetData>
@@ -1651,7 +1651,7 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="D3:F3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R12 吹膜工序物料平衡记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R12 吹膜工序物料平衡记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuyang/Documents/workspace/mitcpro/mySystem/mySystem/xls/Extrusion/B/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C16C5FD0-BA55-6E41-B41F-36DCC8752F4C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4D71DE8D-7E72-0942-B939-F8CC7824A64A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="460" windowWidth="27880" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
   <si>
     <t>艾微美奥星包装科技（北京）有限责任公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,6 +193,14 @@
   </si>
   <si>
     <t xml:space="preserve">领料记录合计
+</t>
+  </si>
+  <si>
+    <t>退料量
+（kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">退料记录合计
 </t>
   </si>
 </sst>
@@ -567,7 +575,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -721,26 +729,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -763,11 +771,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1516,37 +1527,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:F3"/>
+      <selection activeCell="E5" sqref="E5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" customWidth="1"/>
-    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="1" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="47" customFormat="1" ht="18.75" customHeight="1">
+    <row r="1" spans="1:7" s="47" customFormat="1" ht="18.75" customHeight="1">
       <c r="A1" s="49" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="49"/>
-      <c r="C1" s="45"/>
+      <c r="C1" s="49"/>
       <c r="D1" s="45"/>
       <c r="E1" s="45"/>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="45"/>
+      <c r="G1" s="46" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="42.75" customHeight="1">
+    <row r="2" spans="1:7" ht="42.75" customHeight="1">
       <c r="A2" s="58" t="s">
         <v>2</v>
       </c>
@@ -1555,103 +1567,114 @@
       <c r="D2" s="58"/>
       <c r="E2" s="58"/>
       <c r="F2" s="58"/>
-    </row>
-    <row r="3" spans="1:6" ht="31.5" customHeight="1">
+      <c r="G2" s="58"/>
+    </row>
+    <row r="3" spans="1:7" ht="31.5" customHeight="1">
       <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="50" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="E3" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="66"/>
       <c r="F3" s="65"/>
-    </row>
-    <row r="4" spans="1:6" ht="9" customHeight="1"/>
-    <row r="5" spans="1:6" ht="31" customHeight="1">
-      <c r="A5" s="52" t="s">
+      <c r="G3" s="66"/>
+    </row>
+    <row r="4" spans="1:7" ht="9" customHeight="1"/>
+    <row r="5" spans="1:7" ht="31" customHeight="1">
+      <c r="A5" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="G5" s="52" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="74.25" customHeight="1">
-      <c r="A6" s="54" t="s">
+    <row r="6" spans="1:7" ht="74.25" customHeight="1">
+      <c r="A6" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="54" t="s">
+      <c r="G6" s="53" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="39.75" customHeight="1">
+    <row r="7" spans="1:7" ht="39.75" customHeight="1">
       <c r="A7" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="39"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="38"/>
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
-      <c r="F7" s="44"/>
-    </row>
-    <row r="8" spans="1:6" ht="36" customHeight="1">
+      <c r="F7" s="39"/>
+      <c r="G7" s="44"/>
+    </row>
+    <row r="8" spans="1:7" ht="36" customHeight="1">
       <c r="A8" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="67"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="55"/>
+      <c r="F8" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="63"/>
-    </row>
-    <row r="9" spans="1:6" ht="21" customHeight="1">
-      <c r="E9" s="61"/>
+      <c r="G8" s="63"/>
+    </row>
+    <row r="9" spans="1:7" ht="21" customHeight="1">
       <c r="F9" s="61"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
-      <c r="E10" s="61"/>
+      <c r="G9" s="61"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="F10" s="61"/>
-    </row>
-    <row r="13" spans="1:6" ht="53.5" customHeight="1"/>
+      <c r="G10" s="61"/>
+    </row>
+    <row r="13" spans="1:7" ht="53.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="D3:F3"/>
+  <mergeCells count="7">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="B3:C3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R12 吹膜工序物料平衡记录.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R12 吹膜工序物料平衡记录.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuyang/Documents/workspace/mitcpro/mySystem/mySystem/xls/Extrusion/B/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mitcpro\mySystem\mySystem\xls\Extrusion\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4D71DE8D-7E72-0942-B939-F8CC7824A64A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="460" windowWidth="27880" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="915" yWindow="465" windowWidth="27885" windowHeight="17535" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="1" r:id="rId1"/>
@@ -20,9 +19,6 @@
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -31,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
   <si>
     <t>艾微美奥星包装科技（北京）有限责任公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,10 +136,6 @@
   </si>
   <si>
     <t xml:space="preserve">      年    月    日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -168,14 +160,6 @@
   <si>
     <t>(T+U)/(a+b+C)*100=
 保留2位小数 如：99.96%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录人/日期：               年   月   日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                     年   月   日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -207,19 +191,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Century Schoolbook"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Century Schoolbook"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -228,7 +212,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Century Schoolbook"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -236,7 +220,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Century Schoolbook"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -245,7 +229,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Century Schoolbook"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -266,7 +250,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Century Schoolbook"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -274,7 +258,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Century Schoolbook"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -575,7 +559,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -720,9 +704,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -741,31 +722,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -776,13 +745,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1091,29 +1057,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="16.125" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="14.5" style="6" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="14.6640625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" customWidth="1"/>
+    <col min="7" max="7" width="14.625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="13.125" customWidth="1"/>
     <col min="9" max="10" width="7.5" customWidth="1"/>
-    <col min="11" max="12" width="8.33203125" customWidth="1"/>
-    <col min="13" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.375" customWidth="1"/>
+    <col min="13" max="13" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1126,19 +1092,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="42.75" customHeight="1">
-      <c r="A2" s="58" t="s">
+    <row r="2" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="31.5" customHeight="1" thickBot="1">
+    <row r="3" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -1149,7 +1115,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" s="15" customFormat="1" ht="45.75" customHeight="1">
+    <row r="4" spans="1:9" s="15" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
@@ -1172,7 +1138,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="22.5" customHeight="1">
+    <row r="5" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16">
         <v>1</v>
       </c>
@@ -1183,7 +1149,7 @@
       <c r="F5" s="21"/>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:9" ht="22.5" customHeight="1">
+    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="16">
         <v>2</v>
       </c>
@@ -1194,7 +1160,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:9" ht="22.5" customHeight="1">
+    <row r="7" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16">
         <v>3</v>
       </c>
@@ -1205,7 +1171,7 @@
       <c r="F7" s="16"/>
       <c r="G7" s="22"/>
     </row>
-    <row r="8" spans="1:9" ht="22.5" customHeight="1">
+    <row r="8" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16">
         <v>4</v>
       </c>
@@ -1216,7 +1182,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="22"/>
     </row>
-    <row r="9" spans="1:9" ht="22.5" customHeight="1">
+    <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="16">
         <v>6</v>
       </c>
@@ -1227,7 +1193,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="22"/>
     </row>
-    <row r="10" spans="1:9" ht="22.5" customHeight="1">
+    <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="16">
         <v>7</v>
       </c>
@@ -1238,7 +1204,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="22"/>
     </row>
-    <row r="11" spans="1:9" ht="22.5" customHeight="1">
+    <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="16">
         <v>5</v>
       </c>
@@ -1249,7 +1215,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="22"/>
     </row>
-    <row r="12" spans="1:9" ht="22.5" customHeight="1" thickBot="1">
+    <row r="12" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24">
         <v>8</v>
       </c>
@@ -1260,11 +1226,11 @@
       <c r="F12" s="24"/>
       <c r="G12" s="29"/>
     </row>
-    <row r="13" spans="1:9" ht="9" customHeight="1" thickBot="1">
+    <row r="13" spans="1:9" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:9" ht="45" customHeight="1">
+    <row r="14" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="30" t="s">
         <v>12</v>
       </c>
@@ -1290,7 +1256,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="36.75" customHeight="1" thickBot="1">
+    <row r="15" spans="1:9" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="24"/>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
@@ -1300,11 +1266,11 @@
       <c r="G15" s="35"/>
       <c r="H15" s="29"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G16" s="6"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="33.75" customHeight="1">
+    <row r="17" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="38" t="s">
         <v>20</v>
       </c>
@@ -1316,7 +1282,7 @@
       <c r="G17" s="40"/>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="1:8" ht="30" customHeight="1">
+    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>21</v>
       </c>
@@ -1324,7 +1290,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="53.5" customHeight="1"/>
+    <row r="23" spans="1:8" ht="53.45" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:G2"/>
@@ -1337,23 +1303,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="5" width="21.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="8.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="3" max="5" width="21.625" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="8.375" customWidth="1"/>
+    <col min="7" max="7" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1364,16 +1330,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="42.75" customHeight="1">
-      <c r="A2" s="58" t="s">
+    <row r="2" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-    </row>
-    <row r="3" spans="1:5" ht="31.5" customHeight="1" thickBot="1">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+    </row>
+    <row r="3" spans="1:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -1382,7 +1348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="15" customFormat="1" ht="45.75" customHeight="1">
+    <row r="4" spans="1:5" s="15" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
@@ -1399,7 +1365,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="22.5" customHeight="1">
+    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16">
         <v>1</v>
       </c>
@@ -1408,7 +1374,7 @@
       <c r="D5" s="18"/>
       <c r="E5" s="22"/>
     </row>
-    <row r="6" spans="1:5" ht="22.5" customHeight="1">
+    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="16">
         <v>2</v>
       </c>
@@ -1417,7 +1383,7 @@
       <c r="D6" s="18"/>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" spans="1:5" ht="22.5" customHeight="1">
+    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16">
         <v>3</v>
       </c>
@@ -1426,7 +1392,7 @@
       <c r="D7" s="18"/>
       <c r="E7" s="22"/>
     </row>
-    <row r="8" spans="1:5" ht="22.5" customHeight="1">
+    <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16">
         <v>4</v>
       </c>
@@ -1435,7 +1401,7 @@
       <c r="D8" s="18"/>
       <c r="E8" s="22"/>
     </row>
-    <row r="9" spans="1:5" ht="22.5" customHeight="1">
+    <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="16">
         <v>6</v>
       </c>
@@ -1444,7 +1410,7 @@
       <c r="D9" s="19"/>
       <c r="E9" s="20"/>
     </row>
-    <row r="10" spans="1:5" ht="22.5" customHeight="1">
+    <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="16">
         <v>7</v>
       </c>
@@ -1453,7 +1419,7 @@
       <c r="D10" s="18"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" spans="1:5" ht="22.5" customHeight="1">
+    <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="16">
         <v>5</v>
       </c>
@@ -1462,7 +1428,7 @@
       <c r="D11" s="18"/>
       <c r="E11" s="22"/>
     </row>
-    <row r="12" spans="1:5" ht="22.5" customHeight="1" thickBot="1">
+    <row r="12" spans="1:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24">
         <v>8</v>
       </c>
@@ -1471,8 +1437,8 @@
       <c r="D12" s="26"/>
       <c r="E12" s="28"/>
     </row>
-    <row r="13" spans="1:5" ht="9" customHeight="1" thickBot="1"/>
-    <row r="14" spans="1:5" ht="45" customHeight="1">
+    <row r="13" spans="1:5" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="30" t="s">
         <v>12</v>
       </c>
@@ -1489,14 +1455,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="36.75" customHeight="1" thickBot="1">
+    <row r="15" spans="1:5" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="24"/>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
       <c r="D15" s="35"/>
       <c r="E15" s="29"/>
     </row>
-    <row r="17" spans="1:5" ht="33.75" customHeight="1">
+    <row r="17" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="38" t="s">
         <v>20</v>
       </c>
@@ -1505,7 +1471,7 @@
       <c r="D17" s="39"/>
       <c r="E17" s="44"/>
     </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1">
+    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>21</v>
       </c>
@@ -1513,7 +1479,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="53.5" customHeight="1"/>
+    <row r="23" spans="1:5" ht="53.45" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:E2"/>
@@ -1526,152 +1492,124 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="14.83203125" customWidth="1"/>
+    <col min="1" max="2" width="14.875" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
-    <col min="7" max="7" width="23.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="23.625" customWidth="1"/>
+    <col min="8" max="8" width="8.375" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="47" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:7" s="47" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
       <c r="D1" s="45"/>
       <c r="E1" s="45"/>
       <c r="F1" s="45"/>
       <c r="G1" s="46" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="42.75" customHeight="1">
-      <c r="A2" s="58" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-    </row>
-    <row r="3" spans="1:7" ht="31.5" customHeight="1">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+    </row>
+    <row r="3" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="50" t="s">
+      <c r="B3" s="57"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="64" t="s">
+      <c r="E3" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="66"/>
-    </row>
-    <row r="4" spans="1:7" ht="9" customHeight="1"/>
-    <row r="5" spans="1:7" ht="31" customHeight="1">
-      <c r="A5" s="51" t="s">
+      <c r="F3" s="60"/>
+      <c r="G3" s="61"/>
+    </row>
+    <row r="4" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:7" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="F5" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="52" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="74.25" customHeight="1">
-      <c r="A6" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="53" t="s">
+      <c r="F6" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="54" t="s">
+      <c r="G6" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="53" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="39.75" customHeight="1">
-      <c r="A7" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="44"/>
-    </row>
-    <row r="8" spans="1:7" ht="36" customHeight="1">
-      <c r="A8" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="63"/>
-    </row>
-    <row r="9" spans="1:7" ht="21" customHeight="1">
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-    </row>
-    <row r="13" spans="1:7" ht="53.5" customHeight="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+    </row>
+    <row r="11" spans="1:7" ht="53.45" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="5">
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F7:G7"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="B3:C3"/>
@@ -1684,12 +1622,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
